--- a/bots/crawl_ch/output/office_coop_2022-07-16.xlsx
+++ b/bots/crawl_ch/output/office_coop_2022-07-16.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1340,133 +1340,133 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4933118</t>
+          <t>3268684</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Büroordner 7 cm hellgrün</t>
+          <t>PRITT Klebestift (22 g)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/bueroordner-7-cm-hellgruen/p/4933118</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-klebestift-22-g/p/3268684</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22g</t>
+        </is>
+      </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13.41/100g</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Büroordner 7 cm hellgrün 3.60 Schweizer Franken</t>
+          <t>PRITT Klebestift (22 g) 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3268684</t>
+          <t>6345156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (22 g)</t>
+          <t>Qualité&amp;amp;Prix Klebeband Classic 19 mm x 33 m Duo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-klebestift-22-g/p/3268684</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>22g</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-classic-19-mm-x-33-m-duo/p/6345156</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>13.41/100g</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (22 g) 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Klebeband Classic 19 mm x 33 m Duo 2.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1610,24 +1610,24 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6345156</t>
+          <t>4933118</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband Classic 19 mm x 33 m Duo</t>
+          <t>Büroordner 7 cm hellgrün</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-classic-19-mm-x-33-m-duo/p/6345156</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/bueroordner-7-cm-hellgruen/p/4933118</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1653,17 +1653,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband Classic 19 mm x 33 m Duo 2.45 Schweizer Franken</t>
+          <t>Büroordner 7 cm hellgrün 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -1809,24 +1809,24 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3353800</t>
+          <t>3353377</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tipp-Ex Mini Pocket Mouse Korrekturroller 1 Stück</t>
+          <t>Edding 400 Permanentmarker schwarz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/tipp-ex-mini-pocket-mouse-korrekturroller-1-stueck/p/3353800</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/edding-400-permanentmarker-schwarz/p/3353377</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1834,25 +1834,23 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tipp-Ex</t>
+          <t>Edding</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.70/1ST</t>
+          <t>3.60/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1862,7 +1860,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1872,34 +1870,34 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tipp-Ex Mini Pocket Mouse Korrekturroller 1 Stück 3.70 Schweizer Franken</t>
+          <t>Edding 400 Permanentmarker schwarz 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3353377</t>
+          <t>3353800</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Edding 400 Permanentmarker schwarz</t>
+          <t>Tipp-Ex Mini Pocket Mouse Korrekturroller 1 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/edding-400-permanentmarker-schwarz/p/3353377</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/tipp-ex-mini-pocket-mouse-korrekturroller-1-stueck/p/3353800</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1907,23 +1905,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Edding</t>
+          <t>Tipp-Ex</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.60/1ST</t>
+          <t>3.70/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Edding 400 Permanentmarker schwarz 3.60 Schweizer Franken</t>
+          <t>Tipp-Ex Mini Pocket Mouse Korrekturroller 1 Stück 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2688,50 +2688,50 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5691575</t>
+          <t>3268662</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Post-it Super Sticky 76x76 mm gelb, 6 Stück</t>
+          <t>Scotch Crystal 6-1925D Klebeband Abroller 19 mm x 25 m</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-super-sticky-76x76-mm-gelb-6-stueck/p/5691575</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/scotch-crystal-6-1925d-klebeband-abroller-19-mm-x-25-m/p/3268662</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Post-it</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.08/1ST</t>
+          <t>4.60/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2751,90 +2751,90 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Post-it Super Sticky 76x76 mm gelb, 6 Stück 12.50 Schweizer Franken</t>
+          <t>Scotch Crystal 6-1925D Klebeband Abroller 19 mm x 25 m 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3268662</t>
+          <t>5691575</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925D Klebeband Abroller 19 mm x 25 m</t>
+          <t>Post-it Super Sticky 76x76 mm gelb, 6 Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/scotch-crystal-6-1925d-klebeband-abroller-19-mm-x-25-m/p/3268662</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-super-sticky-76x76-mm-gelb-6-stueck/p/5691575</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Post-it</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.08/1ST</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Scotch</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4.60/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925D Klebeband Abroller 19 mm x 25 m 4.60 Schweizer Franken</t>
+          <t>Post-it Super Sticky 76x76 mm gelb, 6 Stück 12.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3218,36 +3218,34 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4948656</t>
+          <t>3267080</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuvert C6 100 Stk.</t>
+          <t>Qualité&amp;amp;Prix Schreibkarten A6 weiss 50 Stk.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/prix-garantie-kuvert-c6-100-stk/p/4948656</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/qualite-prix-schreibkarten-a6-weiss-50-stk/p/3267080</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>100ST</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3256,12 +3254,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3271,7 +3269,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3281,44 +3279,46 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuvert C6 100 Stk. 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Schreibkarten A6 weiss 50 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3267080</t>
+          <t>4948656</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schreibkarten A6 weiss 50 Stk.</t>
+          <t>Prix Garantie Kuvert C6 100 Stk.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/qualite-prix-schreibkarten-a6-weiss-50-stk/p/3267080</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/prix-garantie-kuvert-c6-100-stk/p/4948656</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>100ST</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3352,40 +3352,42 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schreibkarten A6 weiss 50 Stk. 1.95 Schweizer Franken</t>
+          <t>Prix Garantie Kuvert C6 100 Stk. 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6508270</t>
+          <t>4047039</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Oecoplan Zeichenblock A4 80 g/m2</t>
+          <t>Qualité&amp;amp;Prix Universal-Klebeband 19 mm x 50 m</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-zeichenblock-a4-80-gm2/p/6508270</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-universal-klebeband-19-mm-x-50-m/p/4047039</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3394,7 +3396,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3403,141 +3405,139 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Oecoplan Zeichenblock A4 80 g/m2 3.25 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Universal-Klebeband 19 mm x 50 m 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4047039</t>
+          <t>3424776</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Universal-Klebeband 19 mm x 50 m</t>
+          <t>Kugelschreiber 825 schwarz</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-universal-klebeband-19-mm-x-50-m/p/4047039</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/kugelschreiber-825-schwarz/p/3424776</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Caran d'ache</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1.98/1ST</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Universal-Klebeband 19 mm x 50 m 1.95 Schweizer Franken</t>
+          <t>Kugelschreiber 825 schwarz 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3424776</t>
+          <t>6508270</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kugelschreiber 825 schwarz</t>
+          <t>Oecoplan Zeichenblock A4 80 g/m2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/kugelschreiber-825-schwarz/p/3424776</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-zeichenblock-a4-80-gm2/p/6508270</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Caran d'ache</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1.98/1ST</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kugelschreiber 825 schwarz 3.95 Schweizer Franken</t>
+          <t>Oecoplan Zeichenblock A4 80 g/m2 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3679,50 +3679,50 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3670693</t>
+          <t>3353799</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 kariert 2 Stk.</t>
+          <t>Tipp-Ex Korrekturroller Pocket Mouse</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-notizblock-a4-kariert-2-stk/p/3670693</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/tipp-ex-korrekturroller-pocket-mouse/p/3353799</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tipp-Ex</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.85/1ST</t>
+          <t>5.50/1ST</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3742,60 +3742,60 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 kariert 2 Stk. 5.70 Schweizer Franken</t>
+          <t>Tipp-Ex Korrekturroller Pocket Mouse 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3353799</t>
+          <t>3670693</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tipp-Ex Korrekturroller Pocket Mouse</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 kariert 2 Stk.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/tipp-ex-korrekturroller-pocket-mouse/p/3353799</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-notizblock-a4-kariert-2-stk/p/3670693</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tipp-Ex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5.50/1ST</t>
+          <t>2.85/1ST</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3815,17 +3815,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Tipp-Ex Korrekturroller Pocket Mouse 5.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 kariert 2 Stk. 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4042,50 +4042,48 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3353538</t>
+          <t>4911656</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-leuchtstift-boss-original-4er-etui/p/3353538</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Pattex</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.43/1ST</t>
+          <t>1.83/1ST</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4095,7 +4093,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4105,58 +4103,60 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui 5.70 Schweizer Franken</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4911656</t>
+          <t>3353538</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
+          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-leuchtstift-boss-original-4er-etui/p/3353538</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3ST</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pattex</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.83/1ST</t>
+          <t>1.43/1ST</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4176,165 +4176,163 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
+          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3667780</t>
+          <t>4638648</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 12-tlg</t>
+          <t>PRITT Klebestift (80 mm)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-12-tlg/p/3667780</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1.73/1ST</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 12-tlg 3.45 Schweizer Franken</t>
+          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4638648</t>
+          <t>6350385</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm)</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-30-stk/p/6350385</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>30ST</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.11/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk. 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6350385</t>
+          <t>6876715</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk.</t>
+          <t>Canon Kopierpapier Black Label</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-30-stk/p/6350385</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>500BLT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -4343,119 +4341,121 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0.11/1ST</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk. 3.20 Schweizer Franken</t>
+          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6876715</t>
+          <t>3424775</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label</t>
+          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-buerokugelschrknopf-blau-2stk/p/3424775</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>500BLT</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>11</v>
+      </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Caran d'ache</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1.98/1ST</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
+          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3424775</t>
+          <t>3667780</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk</t>
+          <t>Oecoplan Kartonregister A4 12-tlg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-buerokugelschrknopf-blau-2stk/p/3424775</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-12-tlg/p/3667780</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4464,24 +4464,24 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Caran d'ache</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.98/1ST</t>
+          <t>1.73/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4506,12 +4506,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk 3.95 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 12-tlg 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -4852,50 +4852,48 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3268754</t>
+          <t>3268665</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tesa Powerstrips Kleber gross 10 Stück</t>
+          <t>Scotch 136D-MDEU Doppelseitiges Klebeband 12 mm x 6.3 m</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/tesa-powerstrips-kleber-gross-10-stueck/p/3268754</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-136d-mdeu-doppelseitiges-klebeband-12-mm-x-63-m/p/3268665</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>4</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tesa</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.50/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4905,7 +4903,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4915,105 +4913,107 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tesa Powerstrips Kleber gross 10 Stück 4.95 Schweizer Franken</t>
+          <t>Scotch 136D-MDEU Doppelseitiges Klebeband 12 mm x 6.3 m 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3267348002</t>
+          <t>3268754</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Oecoplan Notizblock kariert A4 100 Blätter</t>
+          <t>Tesa Powerstrips Kleber gross 10 Stück</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-notizblock-kariert-a4-100-blaetter/p/3267348002</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/tesa-powerstrips-kleber-gross-10-stueck/p/3268754</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Tesa</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.50/1ST</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2.70/1ST</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Oecoplan Notizblock kariert A4 100 Blätter 2.70 Schweizer Franken</t>
+          <t>Tesa Powerstrips Kleber gross 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3268665</t>
+          <t>3267348002</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Scotch 136D-MDEU Doppelseitiges Klebeband 12 mm x 6.3 m</t>
+          <t>Oecoplan Notizblock kariert A4 100 Blätter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-136d-mdeu-doppelseitiges-klebeband-12-mm-x-63-m/p/3268665</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-notizblock-kariert-a4-100-blaetter/p/3267348002</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5027,17 +5027,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>2.70/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5057,17 +5057,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Scotch 136D-MDEU Doppelseitiges Klebeband 12 mm x 6.3 m 3.95 Schweizer Franken</t>
+          <t>Oecoplan Notizblock kariert A4 100 Blätter 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5317,48 +5317,50 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3267344003</t>
+          <t>5910345</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C4 12 Stk.</t>
+          <t>Pritt Kleberoller Compact permanent</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c4-12-stk/p/3267344003</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-kleberoller-compact-permanent/p/5910345</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.23/1ST</t>
+          <t>4.70/1ST</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5368,7 +5370,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5378,113 +5380,97 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C4 12 Stk. 2.70 Schweizer Franken</t>
+          <t>Pritt Kleberoller Compact permanent 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5910345</t>
+          <t>3844992</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pritt Kleberoller Compact permanent</t>
+          <t>Seidenpapier blau 50x70cm 25 Stück</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-kleberoller-compact-permanent/p/5910345</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-blau-50x70cm-25-stueck/p/3844992</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>4.70/1ST</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Pritt Kleberoller Compact permanent 4.70 Schweizer Franken</t>
+          <t>Seidenpapier blau 50x70cm 25 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3844992</t>
+          <t>3673118</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Seidenpapier blau 50x70cm 25 Stück</t>
+          <t>Collegeblock A4 kariert</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-blau-50x70cm-25-stueck/p/3844992</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5493,128 +5479,140 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Seidenpapier blau 50x70cm 25 Stück 4.95 Schweizer Franken</t>
+          <t>Collegeblock A4 kariert 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3673118</t>
+          <t>3267344003</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert</t>
+          <t>Oecoplan Kuvert C4 12 Stk.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c4-12-stk/p/3267344003</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.23/1ST</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert 3.95 Schweizer Franken</t>
+          <t>Oecoplan Kuvert C4 12 Stk. 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4671294</t>
+          <t>3890234</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent</t>
+          <t>Qualité&amp;amp;Prix Büroklammen 26mm 180 Stk.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-transparent/p/4671294</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-bueroklammen-26mm-180-stk/p/3890234</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>2</v>
-      </c>
+          <t>180ST</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5623,12 +5621,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.19/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5638,7 +5636,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5648,113 +5646,119 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent - Online kein Bestand 1.90 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Büroklammen 26mm 180 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3267062</t>
+          <t>4671294</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk.</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-packschnur-150-m-beige-1-stk/p/3267062</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-transparent/p/4671294</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.19/1ST</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>4.30/1ST</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk. 4.30 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent - Online kein Bestand 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4671316</t>
+          <t>3267062</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my gelb</t>
+          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-gelb/p/4671316</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-packschnur-150-m-beige-1-stk/p/3267062</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5763,50 +5767,62 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4.30/1ST</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my gelb 1.90 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk. 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3890234</t>
+          <t>4671316</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammen 26mm 180 Stk.</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my gelb</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-bueroklammen-26mm-180-stk/p/3890234</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>180ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-gelb/p/4671316</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
         <v>0</v>
@@ -5818,42 +5834,26 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammen 26mm 180 Stk. 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my gelb 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6338,36 +6338,36 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4044423</t>
+          <t>4660156</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Foldback Klammern 10 Stück</t>
+          <t>Ausweishülle für Kreditkarte PP 3 Stk.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/foldback-klammern-10-stueck/p/4044423</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/ausweishuelle-fuer-kreditkarte-pp-3-stk/p/4660156</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.20/1ST</t>
+          <t>0.50/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6401,44 +6401,46 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Foldback Klammern 10 Stück 1.95 Schweizer Franken</t>
+          <t>Ausweishülle für Kreditkarte PP 3 Stk. 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4039647</t>
+          <t>4044423</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Spiralhefte A6 4mm kariert ohne Rahmen 3 Stk.</t>
+          <t>Foldback Klammern 10 Stück</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-spiralhefte-a6-4mm-kariert-ohne-rahmen-3-stk/p/4039647</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/foldback-klammern-10-stueck/p/4044423</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3ST</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6447,12 +6449,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.03/1ST</t>
+          <t>0.20/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6462,7 +6464,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6472,34 +6474,34 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Spiralhefte A6 4mm kariert ohne Rahmen 3 Stk. - Online kein Bestand 3.10 Schweizer Franken</t>
+          <t>Foldback Klammern 10 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4660156</t>
+          <t>4039647</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ausweishülle für Kreditkarte PP 3 Stk.</t>
+          <t>Qualité&amp;amp;Prix Spiralhefte A6 4mm kariert ohne Rahmen 3 Stk.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/ausweishuelle-fuer-kreditkarte-pp-3-stk/p/4660156</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-spiralhefte-a6-4mm-kariert-ohne-rahmen-3-stk/p/4039647</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6507,11 +6509,9 @@
           <t>3ST</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -6520,12 +6520,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.50/1ST</t>
+          <t>1.03/1ST</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6545,17 +6545,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Ausweishülle für Kreditkarte PP 3 Stk. 1.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Spiralhefte A6 4mm kariert ohne Rahmen 3 Stk. - Online kein Bestand 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7316,103 +7316,109 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3397494</t>
+          <t>3664687</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Tischabroller Silver line</t>
+          <t>Qualité&amp;amp;Prix Kuvert C6 50 Stk.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-tischabroller-silver-line/p/3397494</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c6-50-stk/p/3664687</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.04/1ST</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>5.90/1ST</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Tischabroller Silver line 5.90 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert C6 50 Stk. 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4132333</t>
+          <t>3397494</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller</t>
+          <t>Qualité&amp;amp;Prix Tischabroller Silver line</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-cl-19-mm-x-33-m--abroller/p/4132333</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-tischabroller-silver-line/p/3397494</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -7421,55 +7427,65 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>5.90/1ST</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Tischabroller Silver line 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3667821</t>
+          <t>4132333</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z</t>
+          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-register-pp-a4-grau-a-z/p/3667821</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-klebeband-cl-19-mm-x-33-m--abroller/p/4132333</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -7478,162 +7494,146 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>3.50/1ST</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z 3.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Klebeband CL 19 mm x 33 m + Abroller 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6400730</t>
+          <t>3667821</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kombiblock pink 4 x 10mm</t>
+          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/baender/kombiblock-pink-4-x-10mm/p/6400730</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-register-pp-a4-grau-a-z/p/3667821</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
       <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>3.50/1ST</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'baender']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Kombiblock pink 4 x 10mm 3.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3664687</t>
+          <t>6400730</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C6 50 Stk.</t>
+          <t>Kombiblock pink 4 x 10mm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c6-50-stk/p/3664687</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>50ST</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/baender/kombiblock-pink-4-x-10mm/p/6400730</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>4</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>0.04/1ST</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'baender']</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C6 50 Stk. 2.20 Schweizer Franken</t>
+          <t>Kombiblock pink 4 x 10mm 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11912,7 +11912,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12211,41 +12211,39 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>4943258</t>
+          <t>4353531</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Malbuch Monster Colouring A4</t>
+          <t>Pilot Tintenroller Frixion Ball Stift rot</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/malbuch-monster-colouring-a4/p/4943258</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/pilot-tintenroller-frixion-ball-stift-rot/p/4353531</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="n">
-        <v>2</v>
-      </c>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -12254,90 +12252,110 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>Malbuch Monster Colouring A4 4.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Stift rot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4353531</t>
+          <t>6710798</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift rot</t>
+          <t>Prix Garantie Farbstifte 12 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/pilot-tintenroller-frixion-ball-stift-rot/p/4353531</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/farbstifte/prix-garantie-farbstifte-12-stueck/p/6710798</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>12ST</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.41/1ST</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'farbstifte']</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift rot 4.70 Schweizer Franken</t>
+          <t>Prix Garantie Farbstifte 12 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6710798</t>
+          <t>3670704</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Prix Garantie Farbstifte 12 Stück</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/farbstifte/prix-garantie-farbstifte-12-stueck/p/6710798</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/qualite-prix-notizblock-a4-gelocht-kariert/p/3670704</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -12351,12 +12369,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0.41/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12366,7 +12384,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -12376,39 +12394,39 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'farbstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Prix Garantie Farbstifte 12 Stück 4.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3670704</t>
+          <t>5043550</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/qualite-prix-notizblock-a4-gelocht-kariert/p/3670704</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>320ST</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -12422,12 +12440,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12437,7 +12455,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -12447,39 +12465,39 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Notizblock A4 gelocht kariert 2.95 Schweizer Franken</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>5043550</t>
+          <t>3406173</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
+          <t>STABILO Leuchtstift swing cool 4er Etui</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/leuchtstifte/stabilo-leuchtstift-swing-cool-4er-etui/p/3406173</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>320ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -12488,17 +12506,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.01/1ST</t>
+          <t>1.49/1ST</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12508,7 +12526,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12518,120 +12536,102 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'leuchtstifte']</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 1.90 Schweizer Franken</t>
+          <t>STABILO Leuchtstift swing cool 4er Etui 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>3406173</t>
+          <t>6029347</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift swing cool 4er Etui</t>
+          <t>HP Tintenpatrone 303XL color</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/leuchtstifte/stabilo-leuchtstift-swing-cool-4er-etui/p/3406173</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303xl-color/p/6029347</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>1.49/1ST</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'leuchtstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift swing cool 4er Etui 5.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 303XL color 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6029347</t>
+          <t>4943258</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303XL color</t>
+          <t>Malbuch Monster Colouring A4</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-303xl-color/p/6029347</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/malbuch-monster-colouring-a4/p/4943258</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>2</v>
+      </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -12640,17 +12640,17 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte']</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 303XL color 49.95 Schweizer Franken</t>
+          <t>Malbuch Monster Colouring A4 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14540,7 +14540,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15114,7 +15114,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15287,7 +15287,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16007,7 +16007,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -17491,29 +17491,29 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3890443</t>
+          <t>3890592</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
+          <t>Qualité&amp;amp;Prix Reissnägel farbig ass. 200 Stk.</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-reissnaegel-farbig-ass-200-stk/p/3890592</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>150ST</t>
+          <t>200ST</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -17552,105 +17552,85 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Reissnägel farbig ass. 200 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>3890592</t>
+          <t>4021791</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Reissnägel farbig ass. 200 Stk.</t>
+          <t>Scotch Schere Precision 20cm</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-reissnaegel-farbig-ass-200-stk/p/3890592</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>200ST</t>
-        </is>
-      </c>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/scotch-schere-precision-20cm/p/4021791</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
         <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Reissnägel farbig ass. 200 Stk. 1.95 Schweizer Franken</t>
+          <t>Scotch Schere Precision 20cm 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>4021791</t>
+          <t>4935476</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Scotch Schere Precision 20cm</t>
+          <t>Canon Druckerpatrone PG-545XL black</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/scotch-schere-precision-20cm/p/4021791</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-druckerpatrone-pg-545xl-black/p/4935476</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
@@ -17660,12 +17640,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I271" t="inlineStr"/>
@@ -17674,49 +17654,51 @@
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>Scotch Schere Precision 20cm 13.95 Schweizer Franken</t>
+          <t>Canon Druckerpatrone PG-545XL black 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4935476</t>
+          <t>6467309</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Canon Druckerpatrone PG-545XL black</t>
+          <t>Ereigniskarte Geburtstag (französisch)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-druckerpatrone-pg-545xl-black/p/4935476</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-geburtstag-franzoesisch/p/6467309</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I272" t="inlineStr"/>
@@ -17725,42 +17707,40 @@
       <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>Canon Druckerpatrone PG-545XL black 29.95 Schweizer Franken</t>
+          <t>Ereigniskarte Geburtstag (französisch) 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6467309</t>
+          <t>6467302</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ereigniskarte Geburtstag (französisch)</t>
+          <t>Ereigniskarte Trauer (deutsch)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-geburtstag-franzoesisch/p/6467309</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-trauer-deutsch/p/6467302</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
-      <c r="E273" t="n">
-        <v>1</v>
-      </c>
+      <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -17783,29 +17763,29 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>Ereigniskarte Geburtstag (französisch) 5.50 Schweizer Franken</t>
+          <t>Ereigniskarte Trauer (deutsch) 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6467302</t>
+          <t>6672207</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ereigniskarte Trauer (deutsch)</t>
+          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-trauer-deutsch/p/6467302</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-combopack-903-cmybk-6zc73ae/p/6672207</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
@@ -17815,12 +17795,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="I274" t="inlineStr"/>
@@ -17829,214 +17809,234 @@
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>Ereigniskarte Trauer (deutsch) 5.50 Schweizer Franken</t>
+          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE 54.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6672207</t>
+          <t>4210167</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE</t>
+          <t>Jass-Kreide Stifte 3 ST</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-combopack-903-cmybk-6zc73ae/p/6672207</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/jass-kreide-stifte-3-st/p/4210167</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>54.95</t>
-        </is>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>0.83/1ST</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE 54.95 Schweizer Franken</t>
+          <t>Jass-Kreide Stifte 3 ST 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4210167</t>
+          <t>5671863</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Jass-Kreide Stifte 3 ST</t>
+          <t>Kopierpapier A4 80g pastell 100 Stück</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/jass-kreide-stifte-3-st/p/4210167</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>3ST</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/kopierpapier-a4-80g-pastell-100-stueck/p/5671863</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>0.83/1ST</t>
-        </is>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>Jass-Kreide Stifte 3 ST 2.50 Schweizer Franken</t>
+          <t>Kopierpapier A4 80g pastell 100 Stück 8.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>5671863</t>
+          <t>3891549</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kopierpapier A4 80g pastell 100 Stück</t>
+          <t>Pelikan Tintenpatronen 4001 königsblau</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/kopierpapier-a4-80g-pastell-100-stueck/p/5671863</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/pelikan-tintenpatronen-4001-koenigsblau/p/3891549</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
         <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>2.95/1ST</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben']</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>Kopierpapier A4 80g pastell 100 Stück 8.30 Schweizer Franken</t>
+          <t>Pelikan Tintenpatronen 4001 königsblau 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>3891549</t>
+          <t>3890443</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pelikan Tintenpatronen 4001 königsblau</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/pelikan-tintenpatronen-4001-koenigsblau/p/3891549</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>150ST</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -18045,17 +18045,17 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18065,7 +18065,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -18075,17 +18075,17 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>Pelikan Tintenpatronen 4001 königsblau 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18156,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18382,7 +18382,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -18759,29 +18759,29 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5969813</t>
+          <t>3268544</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Post-it Index orange, grün &amp;amp; pink 3 Stück</t>
+          <t>Post-it® Fantasy Cubes</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-index-orange-gruen-pink-3-stueck/p/5969813</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-fantasy-cubes/p/3268544</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -18795,12 +18795,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1.92/1ST</t>
+          <t>6.95/1ST</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -18825,97 +18825,117 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>Post-it Index orange, grün &amp;amp; pink 3 Stück 5.75 Schweizer Franken</t>
+          <t>Post-it® Fantasy Cubes 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>5910350</t>
+          <t>5969813</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PRITT Kleberoller (16 m)</t>
+          <t>Post-it Index orange, grün &amp;amp; pink 3 Stück</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-kleberoller-16-m/p/5910350</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-index-orange-gruen-pink-3-stueck/p/5969813</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Post-it</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>1.92/1ST</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>PRITT Kleberoller (16 m) 4.95 Schweizer Franken</t>
+          <t>Post-it Index orange, grün &amp;amp; pink 3 Stück 5.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5728787</t>
+          <t>5910350</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 20 Ersatztaschen</t>
+          <t>PRITT Kleberoller (16 m)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-20-ersatztaschen/p/5728787</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pritt-kleberoller-16-m/p/5910350</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I293" t="inlineStr"/>
@@ -18924,232 +18944,212 @@
       <c r="L293" t="inlineStr"/>
       <c r="M293" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 20 Ersatztaschen 2.95 Schweizer Franken</t>
+          <t>PRITT Kleberoller (16 m) 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3424785</t>
+          <t>5728787</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>STABILO Fasermaler Pen 68 10er Etui</t>
+          <t>Qualité&amp;amp;Prix 20 Ersatztaschen</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-fasermaler-pen-68-10er-etui/p/3424785</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>10ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-20-ersatztaschen/p/5728787</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>1.20/1ST</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>STABILO Fasermaler Pen 68 10er Etui 11.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 20 Ersatztaschen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>7019332</t>
+          <t>3424785</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set5cm lime 3 Stück</t>
+          <t>STABILO Fasermaler Pen 68 10er Etui</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set5cm-lime-3-stueck/p/7019332</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-fasermaler-pen-68-10er-etui/p/3424785</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>10ST</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Esselte</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>1.20/1ST</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set5cm lime 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
+          <t>STABILO Fasermaler Pen 68 10er Etui 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3268641</t>
+          <t>7019332</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Maxi 12 Stück</t>
+          <t>Esselte Ordner Set5cm lime 3 Stück</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/giotto-fasermaler-turbo-maxi-12-stueck/p/3268641</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set5cm-lime-3-stueck/p/7019332</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
         <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Giotto</t>
+          <t>Esselte</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>0.66/1ST</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Maxi 12 Stück 7.95 Schweizer Franken</t>
+          <t>Esselte Ordner Set5cm lime 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>3667788</t>
+          <t>3268641</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 extra-breit 6-tlg</t>
+          <t>Giotto Fasermaler Turbo Maxi 12 Stück</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-extra-breit-6-tlg/p/3667788</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/giotto-fasermaler-turbo-maxi-12-stueck/p/3268641</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -19158,17 +19158,17 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Giotto</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1.35/1ST</t>
+          <t>0.66/1ST</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -19188,107 +19188,105 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 extra-breit 6-tlg 2.70 Schweizer Franken</t>
+          <t>Giotto Fasermaler Turbo Maxi 12 Stück 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4353496</t>
+          <t>3667788</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pilot FriXion Ball blau</t>
+          <t>Oecoplan Kartonregister A4 extra-breit 6-tlg</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-ball-blau/p/4353496</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-extra-breit-6-tlg/p/3667788</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>1.35/1ST</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E298" t="n">
-        <v>2</v>
-      </c>
-      <c r="F298" t="n">
-        <v>4</v>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>Pilot</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>4.70/1ST</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>Pilot FriXion Ball blau 4.70 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 extra-breit 6-tlg 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>4353536</t>
+          <t>4353496</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift schwarz</t>
+          <t>Pilot FriXion Ball blau</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-stift-schwarz/p/4353536</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-ball-blau/p/4353496</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -19297,10 +19295,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F299" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -19339,29 +19337,29 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift schwarz 4.70 Schweizer Franken</t>
+          <t>Pilot FriXion Ball blau 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3268544</t>
+          <t>4353536</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Post-it® Fantasy Cubes</t>
+          <t>Pilot Tintenroller Frixion Ball Stift schwarz</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/haftnotizen/post-it-fantasy-cubes/p/3268544</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-stift-schwarz/p/4353536</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -19369,23 +19367,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr"/>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Post-it</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>6.95/1ST</t>
+          <t>4.70/1ST</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -19405,17 +19405,17 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'haftnotizen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>Post-it® Fantasy Cubes 6.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Stift schwarz 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19539,7 +19539,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19641,7 +19641,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19763,7 +19763,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -19958,7 +19958,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20100,7 +20100,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20242,7 +20242,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20293,7 +20293,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20344,7 +20344,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20448,7 +20448,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20552,7 +20552,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20725,7 +20725,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20929,7 +20929,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21086,7 +21086,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21188,7 +21188,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21259,7 +21259,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21578,7 +21578,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21629,7 +21629,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21842,7 +21842,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22108,7 +22108,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22385,7 +22385,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22436,7 +22436,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22538,7 +22538,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22693,7 +22693,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22797,7 +22797,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22848,7 +22848,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22899,7 +22899,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23054,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23156,7 +23156,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23207,7 +23207,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23258,7 +23258,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23462,7 +23462,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23675,7 +23675,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23746,7 +23746,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24032,7 +24032,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24380,7 +24380,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24451,7 +24451,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24522,7 +24522,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24573,7 +24573,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24726,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24879,7 +24879,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24930,7 +24930,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -24983,7 +24983,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25034,7 +25034,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25207,7 +25207,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25258,7 +25258,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25309,7 +25309,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25433,7 +25433,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25537,7 +25537,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25641,7 +25641,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25694,7 +25694,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25747,7 +25747,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25798,7 +25798,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26108,7 +26108,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26159,7 +26159,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26210,7 +26210,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26312,7 +26312,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26385,7 +26385,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26507,7 +26507,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26682,7 +26682,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26733,7 +26733,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26784,7 +26784,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26926,7 +26926,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -26977,7 +26977,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27028,7 +27028,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27079,7 +27079,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27294,7 +27294,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27345,7 +27345,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27487,7 +27487,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27538,7 +27538,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27662,7 +27662,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27804,7 +27804,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -27946,7 +27946,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28019,7 +28019,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28141,7 +28141,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28243,7 +28243,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28365,7 +28365,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28436,7 +28436,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28507,7 +28507,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28702,7 +28702,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28826,7 +28826,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28879,7 +28879,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29105,7 +29105,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29152,7 +29152,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29203,7 +29203,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29256,7 +29256,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29327,7 +29327,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29398,7 +29398,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29449,7 +29449,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29520,7 +29520,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29591,7 +29591,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29664,7 +29664,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-07-16 07:01:06</t>
+          <t>2022-07-16 20:56:34</t>
         </is>
       </c>
     </row>
